--- a/attendance-files/GS/GS Attendance.xlsx
+++ b/attendance-files/GS/GS Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="195">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -993,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1120,9 +1120,9 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1139,6 +1139,9 @@
     </xf>
     <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1698,11 +1701,11 @@
       <c r="D7" s="32"/>
       <c r="E7" s="33">
         <f t="shared" ref="E7:E84" si="1">COUNTIF(G7:Z7,"A")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="33">
         <f t="shared" ref="F7:F84" si="2">COUNTIF(G7:Z7,"P")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>39</v>
@@ -1731,11 +1734,21 @@
       <c r="O7" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
+      <c r="P7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U7" s="37"/>
       <c r="V7" s="37"/>
       <c r="W7" s="37"/>
@@ -1757,11 +1770,11 @@
       <c r="D8" s="32"/>
       <c r="E8" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>40</v>
@@ -1790,11 +1803,21 @@
       <c r="O8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
+      <c r="P8" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="U8" s="37"/>
       <c r="V8" s="37"/>
       <c r="W8" s="37"/>
@@ -1816,11 +1839,11 @@
       <c r="D9" s="32"/>
       <c r="E9" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>40</v>
@@ -1849,11 +1872,21 @@
       <c r="O9" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
+      <c r="P9" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U9" s="37"/>
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
@@ -1879,7 +1912,7 @@
       </c>
       <c r="F10" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>40</v>
@@ -1908,11 +1941,21 @@
       <c r="O10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
+      <c r="P10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U10" s="37"/>
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
@@ -1938,7 +1981,7 @@
       </c>
       <c r="F11" s="33">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>39</v>
@@ -1967,11 +2010,21 @@
       <c r="O11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
+      <c r="P11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U11" s="37"/>
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
@@ -1993,11 +2046,11 @@
       <c r="D12" s="32"/>
       <c r="E12" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>40</v>
@@ -2026,11 +2079,21 @@
       <c r="O12" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
+      <c r="P12" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
@@ -2052,11 +2115,11 @@
       <c r="D13" s="32"/>
       <c r="E13" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>40</v>
@@ -2085,11 +2148,21 @@
       <c r="O13" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
+      <c r="P13" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="U13" s="37"/>
       <c r="V13" s="37"/>
       <c r="W13" s="37"/>
@@ -2111,11 +2184,11 @@
       <c r="D14" s="32"/>
       <c r="E14" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>39</v>
@@ -2144,11 +2217,21 @@
       <c r="O14" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
+      <c r="P14" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R14" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T14" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U14" s="37"/>
       <c r="V14" s="37"/>
       <c r="W14" s="37"/>
@@ -2170,11 +2253,11 @@
       <c r="D15" s="32"/>
       <c r="E15" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>40</v>
@@ -2203,11 +2286,21 @@
       <c r="O15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
+      <c r="P15" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="U15" s="37"/>
       <c r="V15" s="37"/>
       <c r="W15" s="37"/>
@@ -2233,7 +2326,7 @@
       </c>
       <c r="F16" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>40</v>
@@ -2262,11 +2355,21 @@
       <c r="O16" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
+      <c r="P16" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T16" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U16" s="37"/>
       <c r="V16" s="37"/>
       <c r="W16" s="37"/>
@@ -2288,11 +2391,11 @@
       <c r="D17" s="32"/>
       <c r="E17" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>40</v>
@@ -2321,11 +2424,21 @@
       <c r="O17" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
+      <c r="P17" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U17" s="37"/>
       <c r="V17" s="37"/>
       <c r="W17" s="37"/>
@@ -2351,7 +2464,7 @@
       </c>
       <c r="F18" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>39</v>
@@ -2380,11 +2493,21 @@
       <c r="O18" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
+      <c r="P18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U18" s="37"/>
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
@@ -2410,7 +2533,7 @@
       </c>
       <c r="F19" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G19" s="40" t="s">
         <v>40</v>
@@ -2433,17 +2556,27 @@
       <c r="M19" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="44" t="s">
+      <c r="N19" s="43" t="s">
         <v>39</v>
       </c>
       <c r="O19" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
+      <c r="P19" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U19" s="37"/>
       <c r="V19" s="37"/>
       <c r="W19" s="37"/>
@@ -2465,11 +2598,11 @@
       <c r="D20" s="32"/>
       <c r="E20" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>40</v>
@@ -2498,11 +2631,21 @@
       <c r="O20" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
+      <c r="P20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="U20" s="37"/>
       <c r="V20" s="37"/>
       <c r="W20" s="37"/>
@@ -2524,11 +2667,11 @@
       <c r="D21" s="32"/>
       <c r="E21" s="33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="33">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G21" s="34" t="s">
         <v>39</v>
@@ -2557,11 +2700,21 @@
       <c r="O21" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
+      <c r="P21" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U21" s="37"/>
       <c r="V21" s="37"/>
       <c r="W21" s="37"/>
@@ -2583,11 +2736,11 @@
       <c r="D22" s="32"/>
       <c r="E22" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>40</v>
@@ -2616,11 +2769,21 @@
       <c r="O22" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
+      <c r="P22" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q22" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U22" s="37"/>
       <c r="V22" s="37"/>
       <c r="W22" s="37"/>
@@ -2642,11 +2805,11 @@
       <c r="D23" s="32"/>
       <c r="E23" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G23" s="40" t="s">
         <v>40</v>
@@ -2675,11 +2838,21 @@
       <c r="O23" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
+      <c r="P23" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T23" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U23" s="37"/>
       <c r="V23" s="37"/>
       <c r="W23" s="37"/>
@@ -2701,11 +2874,11 @@
       <c r="D24" s="32"/>
       <c r="E24" s="33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="33">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G24" s="34" t="s">
         <v>39</v>
@@ -2734,11 +2907,21 @@
       <c r="O24" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
+      <c r="P24" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q24" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R24" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T24" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U24" s="37"/>
       <c r="V24" s="37"/>
       <c r="W24" s="37"/>
@@ -2760,11 +2943,11 @@
       <c r="D25" s="32"/>
       <c r="E25" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>40</v>
@@ -2793,11 +2976,21 @@
       <c r="O25" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
+      <c r="P25" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R25" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S25" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U25" s="37"/>
       <c r="V25" s="37"/>
       <c r="W25" s="37"/>
@@ -2819,11 +3012,11 @@
       <c r="D26" s="32"/>
       <c r="E26" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>40</v>
@@ -2852,11 +3045,21 @@
       <c r="O26" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
+      <c r="P26" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S26" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="U26" s="37"/>
       <c r="V26" s="37"/>
       <c r="W26" s="37"/>
@@ -2878,11 +3081,11 @@
       <c r="D27" s="32"/>
       <c r="E27" s="33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" s="33">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G27" s="38" t="s">
         <v>40</v>
@@ -2911,11 +3114,21 @@
       <c r="O27" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
+      <c r="P27" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R27" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U27" s="37"/>
       <c r="V27" s="37"/>
       <c r="W27" s="37"/>
@@ -2937,11 +3150,11 @@
       <c r="D28" s="32"/>
       <c r="E28" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G28" s="34" t="s">
         <v>39</v>
@@ -2970,11 +3183,21 @@
       <c r="O28" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
+      <c r="P28" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q28" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R28" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S28" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T28" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U28" s="37"/>
       <c r="V28" s="37"/>
       <c r="W28" s="37"/>
@@ -2996,11 +3219,11 @@
       <c r="D29" s="32"/>
       <c r="E29" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G29" s="40" t="s">
         <v>40</v>
@@ -3029,11 +3252,21 @@
       <c r="O29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
+      <c r="P29" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q29" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R29" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S29" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T29" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U29" s="37"/>
       <c r="V29" s="37"/>
       <c r="W29" s="37"/>
@@ -3055,11 +3288,11 @@
       <c r="D30" s="32"/>
       <c r="E30" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>40</v>
@@ -3088,11 +3321,21 @@
       <c r="O30" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
+      <c r="P30" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q30" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R30" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S30" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T30" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U30" s="37"/>
       <c r="V30" s="37"/>
       <c r="W30" s="37"/>
@@ -3114,11 +3357,11 @@
       <c r="D31" s="32"/>
       <c r="E31" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G31" s="34" t="s">
         <v>39</v>
@@ -3147,11 +3390,21 @@
       <c r="O31" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
+      <c r="P31" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R31" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S31" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T31" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U31" s="37"/>
       <c r="V31" s="37"/>
       <c r="W31" s="37"/>
@@ -3173,11 +3426,11 @@
       <c r="D32" s="32"/>
       <c r="E32" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F32" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G32" s="34" t="s">
         <v>39</v>
@@ -3206,11 +3459,21 @@
       <c r="O32" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
+      <c r="P32" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q32" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R32" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S32" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T32" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U32" s="37"/>
       <c r="V32" s="37"/>
       <c r="W32" s="37"/>
@@ -3232,11 +3495,11 @@
       <c r="D33" s="32"/>
       <c r="E33" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G33" s="40" t="s">
         <v>40</v>
@@ -3265,11 +3528,21 @@
       <c r="O33" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
+      <c r="P33" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q33" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R33" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S33" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T33" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U33" s="37"/>
       <c r="V33" s="37"/>
       <c r="W33" s="37"/>
@@ -3291,11 +3564,11 @@
       <c r="D34" s="32"/>
       <c r="E34" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G34" s="40" t="s">
         <v>40</v>
@@ -3324,11 +3597,21 @@
       <c r="O34" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
+      <c r="P34" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q34" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R34" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S34" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U34" s="37"/>
       <c r="V34" s="37"/>
       <c r="W34" s="37"/>
@@ -3354,7 +3637,7 @@
       </c>
       <c r="F35" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G35" s="40" t="s">
         <v>40</v>
@@ -3383,11 +3666,21 @@
       <c r="O35" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
+      <c r="P35" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R35" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S35" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T35" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U35" s="37"/>
       <c r="V35" s="37"/>
       <c r="W35" s="37"/>
@@ -3409,11 +3702,11 @@
       <c r="D36" s="32"/>
       <c r="E36" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G36" s="40" t="s">
         <v>40</v>
@@ -3442,11 +3735,21 @@
       <c r="O36" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
+      <c r="P36" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q36" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R36" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S36" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T36" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U36" s="37"/>
       <c r="V36" s="37"/>
       <c r="W36" s="37"/>
@@ -3468,11 +3771,11 @@
       <c r="D37" s="32"/>
       <c r="E37" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G37" s="40" t="s">
         <v>40</v>
@@ -3501,11 +3804,21 @@
       <c r="O37" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
+      <c r="P37" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q37" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R37" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S37" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T37" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U37" s="37"/>
       <c r="V37" s="37"/>
       <c r="W37" s="37"/>
@@ -3527,11 +3840,11 @@
       <c r="D38" s="32"/>
       <c r="E38" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G38" s="40" t="s">
         <v>40</v>
@@ -3560,11 +3873,21 @@
       <c r="O38" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
+      <c r="P38" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q38" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R38" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S38" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T38" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U38" s="37"/>
       <c r="V38" s="37"/>
       <c r="W38" s="37"/>
@@ -3586,11 +3909,11 @@
       <c r="D39" s="32"/>
       <c r="E39" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G39" s="40" t="s">
         <v>40</v>
@@ -3619,11 +3942,21 @@
       <c r="O39" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
+      <c r="P39" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q39" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R39" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S39" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T39" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="U39" s="37"/>
       <c r="V39" s="37"/>
       <c r="W39" s="37"/>
@@ -3645,11 +3978,11 @@
       <c r="D40" s="32"/>
       <c r="E40" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G40" s="40" t="s">
         <v>40</v>
@@ -3672,17 +4005,27 @@
       <c r="M40" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="N40" s="44" t="s">
+      <c r="N40" s="43" t="s">
         <v>39</v>
       </c>
       <c r="O40" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
+      <c r="P40" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q40" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="R40" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="S40" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T40" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U40" s="37"/>
       <c r="V40" s="37"/>
       <c r="W40" s="37"/>
@@ -3704,11 +4047,11 @@
       <c r="D41" s="32"/>
       <c r="E41" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G41" s="40" t="s">
         <v>40</v>
@@ -3737,11 +4080,21 @@
       <c r="O41" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
+      <c r="P41" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q41" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R41" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S41" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T41" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U41" s="37"/>
       <c r="V41" s="37"/>
       <c r="W41" s="37"/>
@@ -3763,11 +4116,11 @@
       <c r="D42" s="32"/>
       <c r="E42" s="33">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F42" s="33">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G42" s="34" t="s">
         <v>39</v>
@@ -3796,11 +4149,21 @@
       <c r="O42" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
+      <c r="P42" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q42" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R42" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S42" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T42" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U42" s="37"/>
       <c r="V42" s="37"/>
       <c r="W42" s="37"/>
@@ -3822,11 +4185,11 @@
       <c r="D43" s="32"/>
       <c r="E43" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G43" s="34" t="s">
         <v>39</v>
@@ -3855,11 +4218,21 @@
       <c r="O43" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
+      <c r="P43" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q43" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R43" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S43" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T43" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U43" s="37"/>
       <c r="V43" s="37"/>
       <c r="W43" s="37"/>
@@ -3885,7 +4258,7 @@
       </c>
       <c r="F44" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>40</v>
@@ -3914,11 +4287,21 @@
       <c r="O44" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
+      <c r="P44" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q44" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R44" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S44" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T44" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U44" s="37"/>
       <c r="V44" s="37"/>
       <c r="W44" s="37"/>
@@ -3940,11 +4323,11 @@
       <c r="D45" s="32"/>
       <c r="E45" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>40</v>
@@ -3973,11 +4356,21 @@
       <c r="O45" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
+      <c r="P45" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q45" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R45" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S45" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T45" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U45" s="37"/>
       <c r="V45" s="37"/>
       <c r="W45" s="37"/>
@@ -3999,11 +4392,11 @@
       <c r="D46" s="32"/>
       <c r="E46" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>40</v>
@@ -4032,11 +4425,21 @@
       <c r="O46" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
+      <c r="P46" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q46" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R46" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S46" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T46" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U46" s="37"/>
       <c r="V46" s="37"/>
       <c r="W46" s="37"/>
@@ -4058,11 +4461,11 @@
       <c r="D47" s="32"/>
       <c r="E47" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F47" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>40</v>
@@ -4091,11 +4494,21 @@
       <c r="O47" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
+      <c r="P47" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q47" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R47" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S47" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T47" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U47" s="37"/>
       <c r="V47" s="37"/>
       <c r="W47" s="37"/>
@@ -4121,7 +4534,7 @@
       </c>
       <c r="F48" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G48" s="40" t="s">
         <v>40</v>
@@ -4150,11 +4563,21 @@
       <c r="O48" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
+      <c r="P48" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q48" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R48" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S48" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T48" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U48" s="37"/>
       <c r="V48" s="37"/>
       <c r="W48" s="37"/>
@@ -4176,11 +4599,11 @@
       <c r="D49" s="32"/>
       <c r="E49" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G49" s="34" t="s">
         <v>39</v>
@@ -4209,11 +4632,21 @@
       <c r="O49" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
+      <c r="P49" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q49" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R49" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S49" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T49" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U49" s="37"/>
       <c r="V49" s="37"/>
       <c r="W49" s="37"/>
@@ -4235,11 +4668,11 @@
       <c r="D50" s="32"/>
       <c r="E50" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G50" s="34" t="s">
         <v>39</v>
@@ -4268,11 +4701,21 @@
       <c r="O50" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
+      <c r="P50" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q50" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R50" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S50" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T50" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U50" s="37"/>
       <c r="V50" s="37"/>
       <c r="W50" s="37"/>
@@ -4294,11 +4737,11 @@
       <c r="D51" s="32"/>
       <c r="E51" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F51" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G51" s="40" t="s">
         <v>40</v>
@@ -4327,11 +4770,21 @@
       <c r="O51" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
+      <c r="P51" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q51" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R51" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S51" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T51" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U51" s="37"/>
       <c r="V51" s="37"/>
       <c r="W51" s="37"/>
@@ -4353,11 +4806,11 @@
       <c r="D52" s="32"/>
       <c r="E52" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G52" s="34" t="s">
         <v>39</v>
@@ -4386,11 +4839,21 @@
       <c r="O52" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
+      <c r="P52" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q52" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R52" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S52" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T52" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U52" s="37"/>
       <c r="V52" s="37"/>
       <c r="W52" s="37"/>
@@ -4412,11 +4875,11 @@
       <c r="D53" s="32"/>
       <c r="E53" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G53" s="40" t="s">
         <v>40</v>
@@ -4445,11 +4908,21 @@
       <c r="O53" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
+      <c r="P53" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q53" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R53" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S53" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T53" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U53" s="37"/>
       <c r="V53" s="37"/>
       <c r="W53" s="37"/>
@@ -4475,7 +4948,7 @@
       </c>
       <c r="F54" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G54" s="40" t="s">
         <v>40</v>
@@ -4504,11 +4977,21 @@
       <c r="O54" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
+      <c r="P54" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q54" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R54" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S54" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T54" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U54" s="37"/>
       <c r="V54" s="37"/>
       <c r="W54" s="37"/>
@@ -4534,7 +5017,7 @@
       </c>
       <c r="F55" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G55" s="34" t="s">
         <v>39</v>
@@ -4563,11 +5046,21 @@
       <c r="O55" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
+      <c r="P55" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q55" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R55" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S55" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T55" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U55" s="37"/>
       <c r="V55" s="37"/>
       <c r="W55" s="37"/>
@@ -4589,11 +5082,11 @@
       <c r="D56" s="32"/>
       <c r="E56" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>40</v>
@@ -4622,11 +5115,21 @@
       <c r="O56" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
+      <c r="P56" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q56" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R56" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S56" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T56" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U56" s="37"/>
       <c r="V56" s="37"/>
       <c r="W56" s="37"/>
@@ -4648,11 +5151,11 @@
       <c r="D57" s="32"/>
       <c r="E57" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>40</v>
@@ -4681,11 +5184,21 @@
       <c r="O57" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
+      <c r="P57" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q57" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R57" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S57" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T57" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U57" s="37"/>
       <c r="V57" s="37"/>
       <c r="W57" s="37"/>
@@ -4707,11 +5220,11 @@
       <c r="D58" s="32"/>
       <c r="E58" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>40</v>
@@ -4740,11 +5253,21 @@
       <c r="O58" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="37"/>
+      <c r="P58" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q58" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R58" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S58" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T58" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U58" s="37"/>
       <c r="V58" s="37"/>
       <c r="W58" s="37"/>
@@ -4766,11 +5289,11 @@
       <c r="D59" s="32"/>
       <c r="E59" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G59" s="34" t="s">
         <v>39</v>
@@ -4799,11 +5322,21 @@
       <c r="O59" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
+      <c r="P59" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q59" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R59" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S59" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T59" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U59" s="37"/>
       <c r="V59" s="37"/>
       <c r="W59" s="37"/>
@@ -4829,7 +5362,7 @@
       </c>
       <c r="F60" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G60" s="34" t="s">
         <v>39</v>
@@ -4858,11 +5391,21 @@
       <c r="O60" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="37"/>
+      <c r="P60" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q60" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R60" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S60" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T60" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U60" s="37"/>
       <c r="V60" s="37"/>
       <c r="W60" s="37"/>
@@ -4884,11 +5427,11 @@
       <c r="D61" s="32"/>
       <c r="E61" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G61" s="40" t="s">
         <v>40</v>
@@ -4917,11 +5460,21 @@
       <c r="O61" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
+      <c r="P61" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q61" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R61" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S61" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T61" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="U61" s="37"/>
       <c r="V61" s="37"/>
       <c r="W61" s="37"/>
@@ -4947,7 +5500,7 @@
       </c>
       <c r="F62" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G62" s="34" t="s">
         <v>39</v>
@@ -4976,11 +5529,21 @@
       <c r="O62" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
+      <c r="P62" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q62" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R62" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S62" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T62" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U62" s="37"/>
       <c r="V62" s="37"/>
       <c r="W62" s="37"/>
@@ -5002,11 +5565,11 @@
       <c r="D63" s="32"/>
       <c r="E63" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>40</v>
@@ -5035,11 +5598,21 @@
       <c r="O63" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="37"/>
+      <c r="P63" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q63" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R63" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S63" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T63" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U63" s="37"/>
       <c r="V63" s="37"/>
       <c r="W63" s="37"/>
@@ -5061,11 +5634,11 @@
       <c r="D64" s="32"/>
       <c r="E64" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G64" s="38" t="s">
         <v>40</v>
@@ -5094,11 +5667,21 @@
       <c r="O64" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
+      <c r="P64" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q64" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R64" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S64" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T64" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U64" s="37"/>
       <c r="V64" s="37"/>
       <c r="W64" s="37"/>
@@ -5120,11 +5703,11 @@
       <c r="D65" s="32"/>
       <c r="E65" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>40</v>
@@ -5153,11 +5736,21 @@
       <c r="O65" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="37"/>
+      <c r="P65" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q65" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R65" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S65" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T65" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U65" s="37"/>
       <c r="V65" s="37"/>
       <c r="W65" s="37"/>
@@ -5183,7 +5776,7 @@
       </c>
       <c r="F66" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G66" s="34" t="s">
         <v>39</v>
@@ -5212,11 +5805,21 @@
       <c r="O66" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="37"/>
+      <c r="P66" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q66" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R66" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S66" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T66" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U66" s="37"/>
       <c r="V66" s="37"/>
       <c r="W66" s="37"/>
@@ -5238,11 +5841,11 @@
       <c r="D67" s="32"/>
       <c r="E67" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G67" s="40" t="s">
         <v>40</v>
@@ -5271,11 +5874,21 @@
       <c r="O67" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
+      <c r="P67" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q67" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R67" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S67" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T67" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="U67" s="37"/>
       <c r="V67" s="37"/>
       <c r="W67" s="37"/>
@@ -5297,11 +5910,11 @@
       <c r="D68" s="32"/>
       <c r="E68" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G68" s="40" t="s">
         <v>40</v>
@@ -5330,11 +5943,21 @@
       <c r="O68" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="37"/>
-      <c r="T68" s="37"/>
+      <c r="P68" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q68" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R68" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S68" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T68" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U68" s="37"/>
       <c r="V68" s="37"/>
       <c r="W68" s="37"/>
@@ -5360,7 +5983,7 @@
       </c>
       <c r="F69" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G69" s="40" t="s">
         <v>40</v>
@@ -5389,11 +6012,21 @@
       <c r="O69" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37"/>
+      <c r="P69" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q69" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R69" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S69" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T69" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U69" s="37"/>
       <c r="V69" s="37"/>
       <c r="W69" s="37"/>
@@ -5415,11 +6048,11 @@
       <c r="D70" s="32"/>
       <c r="E70" s="33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F70" s="33">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G70" s="34" t="s">
         <v>39</v>
@@ -5448,11 +6081,21 @@
       <c r="O70" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="P70" s="33"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="37"/>
+      <c r="P70" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q70" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R70" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S70" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T70" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U70" s="37"/>
       <c r="V70" s="37"/>
       <c r="W70" s="37"/>
@@ -5478,7 +6121,7 @@
       </c>
       <c r="F71" s="33">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>40</v>
@@ -5507,11 +6150,21 @@
       <c r="O71" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P71" s="33"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
-      <c r="S71" s="37"/>
-      <c r="T71" s="37"/>
+      <c r="P71" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q71" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R71" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S71" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T71" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U71" s="37"/>
       <c r="V71" s="37"/>
       <c r="W71" s="37"/>
@@ -5533,11 +6186,11 @@
       <c r="D72" s="32"/>
       <c r="E72" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F72" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>40</v>
@@ -5566,11 +6219,21 @@
       <c r="O72" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="37"/>
+      <c r="P72" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q72" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R72" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S72" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T72" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U72" s="37"/>
       <c r="V72" s="37"/>
       <c r="W72" s="37"/>
@@ -5596,7 +6259,7 @@
       </c>
       <c r="F73" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>40</v>
@@ -5625,11 +6288,21 @@
       <c r="O73" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P73" s="33"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="37"/>
+      <c r="P73" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q73" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R73" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S73" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T73" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U73" s="37"/>
       <c r="V73" s="37"/>
       <c r="W73" s="37"/>
@@ -5655,7 +6328,7 @@
       </c>
       <c r="F74" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G74" s="34" t="s">
         <v>39</v>
@@ -5684,11 +6357,21 @@
       <c r="O74" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P74" s="33"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
-      <c r="S74" s="37"/>
-      <c r="T74" s="37"/>
+      <c r="P74" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q74" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R74" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S74" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T74" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U74" s="37"/>
       <c r="V74" s="37"/>
       <c r="W74" s="37"/>
@@ -5710,11 +6393,11 @@
       <c r="D75" s="32"/>
       <c r="E75" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G75" s="40" t="s">
         <v>40</v>
@@ -5743,11 +6426,21 @@
       <c r="O75" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P75" s="33"/>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="37"/>
-      <c r="S75" s="37"/>
-      <c r="T75" s="37"/>
+      <c r="P75" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q75" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R75" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S75" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T75" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U75" s="37"/>
       <c r="V75" s="37"/>
       <c r="W75" s="37"/>
@@ -5769,11 +6462,11 @@
       <c r="D76" s="32"/>
       <c r="E76" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F76" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G76" s="34" t="s">
         <v>39</v>
@@ -5802,11 +6495,21 @@
       <c r="O76" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P76" s="33"/>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="37"/>
-      <c r="S76" s="37"/>
-      <c r="T76" s="37"/>
+      <c r="P76" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q76" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R76" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S76" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T76" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U76" s="37"/>
       <c r="V76" s="37"/>
       <c r="W76" s="37"/>
@@ -5828,11 +6531,11 @@
       <c r="D77" s="32"/>
       <c r="E77" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G77" s="38" t="s">
         <v>40</v>
@@ -5861,11 +6564,21 @@
       <c r="O77" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P77" s="43"/>
-      <c r="Q77" s="37"/>
-      <c r="R77" s="37"/>
-      <c r="S77" s="37"/>
-      <c r="T77" s="37"/>
+      <c r="P77" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q77" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R77" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S77" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T77" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U77" s="37"/>
       <c r="V77" s="37"/>
       <c r="W77" s="37"/>
@@ -5887,11 +6600,11 @@
       <c r="D78" s="32"/>
       <c r="E78" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G78" s="38" t="s">
         <v>40</v>
@@ -5920,11 +6633,21 @@
       <c r="O78" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P78" s="33"/>
-      <c r="Q78" s="37"/>
-      <c r="R78" s="37"/>
-      <c r="S78" s="37"/>
-      <c r="T78" s="37"/>
+      <c r="P78" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q78" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R78" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S78" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T78" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U78" s="37"/>
       <c r="V78" s="37"/>
       <c r="W78" s="37"/>
@@ -5946,11 +6669,11 @@
       <c r="D79" s="32"/>
       <c r="E79" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G79" s="38" t="s">
         <v>40</v>
@@ -5979,11 +6702,21 @@
       <c r="O79" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P79" s="43"/>
-      <c r="Q79" s="37"/>
-      <c r="R79" s="37"/>
-      <c r="S79" s="37"/>
-      <c r="T79" s="37"/>
+      <c r="P79" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q79" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R79" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S79" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T79" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U79" s="37"/>
       <c r="V79" s="37"/>
       <c r="W79" s="37"/>
@@ -6005,11 +6738,11 @@
       <c r="D80" s="32"/>
       <c r="E80" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F80" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G80" s="38" t="s">
         <v>40</v>
@@ -6029,7 +6762,7 @@
       <c r="L80" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="M80" s="44" t="s">
+      <c r="M80" s="43" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="36" t="s">
@@ -6038,11 +6771,21 @@
       <c r="O80" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P80" s="33"/>
-      <c r="Q80" s="37"/>
-      <c r="R80" s="37"/>
-      <c r="S80" s="37"/>
-      <c r="T80" s="37"/>
+      <c r="P80" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q80" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R80" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S80" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T80" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U80" s="37"/>
       <c r="V80" s="37"/>
       <c r="W80" s="37"/>
@@ -6064,11 +6807,11 @@
       <c r="D81" s="32"/>
       <c r="E81" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G81" s="38" t="s">
         <v>40</v>
@@ -6097,11 +6840,21 @@
       <c r="O81" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P81" s="43"/>
-      <c r="Q81" s="37"/>
-      <c r="R81" s="37"/>
-      <c r="S81" s="37"/>
-      <c r="T81" s="37"/>
+      <c r="P81" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q81" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R81" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S81" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T81" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U81" s="37"/>
       <c r="V81" s="37"/>
       <c r="W81" s="37"/>
@@ -6127,7 +6880,7 @@
       </c>
       <c r="F82" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G82" s="34" t="s">
         <v>39</v>
@@ -6156,11 +6909,21 @@
       <c r="O82" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P82" s="33"/>
-      <c r="Q82" s="37"/>
-      <c r="R82" s="37"/>
-      <c r="S82" s="37"/>
-      <c r="T82" s="37"/>
+      <c r="P82" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q82" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R82" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S82" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T82" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U82" s="37"/>
       <c r="V82" s="37"/>
       <c r="W82" s="37"/>
@@ -6182,11 +6945,11 @@
       <c r="D83" s="32"/>
       <c r="E83" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F83" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G83" s="34" t="s">
         <v>39</v>
@@ -6215,11 +6978,21 @@
       <c r="O83" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P83" s="33"/>
-      <c r="Q83" s="37"/>
-      <c r="R83" s="37"/>
-      <c r="S83" s="37"/>
-      <c r="T83" s="37"/>
+      <c r="P83" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q83" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R83" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S83" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T83" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U83" s="37"/>
       <c r="V83" s="37"/>
       <c r="W83" s="37"/>
@@ -6241,11 +7014,11 @@
       <c r="D84" s="32"/>
       <c r="E84" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F84" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G84" s="40" t="s">
         <v>40</v>
@@ -6274,11 +7047,21 @@
       <c r="O84" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P84" s="33"/>
-      <c r="Q84" s="37"/>
-      <c r="R84" s="37"/>
-      <c r="S84" s="37"/>
-      <c r="T84" s="37"/>
+      <c r="P84" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q84" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R84" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S84" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T84" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="U84" s="37"/>
       <c r="V84" s="37"/>
       <c r="W84" s="37"/>
@@ -6288,9 +7071,7 @@
       <c r="AA84" s="19"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="33">
-        <v>79.0</v>
-      </c>
+      <c r="A85" s="33"/>
       <c r="B85" s="47"/>
       <c r="C85" s="48"/>
       <c r="D85" s="49"/>
@@ -6298,12 +7079,12 @@
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
       <c r="H85" s="33"/>
-      <c r="I85" s="43"/>
+      <c r="I85" s="50"/>
       <c r="J85" s="33"/>
       <c r="K85" s="33"/>
       <c r="L85" s="33"/>
       <c r="M85" s="33"/>
-      <c r="N85" s="43"/>
+      <c r="N85" s="50"/>
       <c r="O85" s="33"/>
       <c r="P85" s="33"/>
       <c r="Q85" s="37"/>
@@ -6319,9 +7100,7 @@
       <c r="AA85" s="19"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="33">
-        <v>80.0</v>
-      </c>
+      <c r="A86" s="33"/>
       <c r="B86" s="45"/>
       <c r="C86" s="46"/>
       <c r="D86" s="49"/>
@@ -6332,9 +7111,9 @@
       <c r="I86" s="33"/>
       <c r="J86" s="33"/>
       <c r="K86" s="33"/>
-      <c r="L86" s="43"/>
+      <c r="L86" s="50"/>
       <c r="M86" s="33"/>
-      <c r="N86" s="43"/>
+      <c r="N86" s="50"/>
       <c r="O86" s="33"/>
       <c r="P86" s="33"/>
       <c r="Q86" s="37"/>
@@ -6350,9 +7129,7 @@
       <c r="AA86" s="19"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="33">
-        <v>81.0</v>
-      </c>
+      <c r="A87" s="33"/>
       <c r="B87" s="37"/>
       <c r="C87" s="37"/>
       <c r="D87" s="49"/>
@@ -6381,9 +7158,7 @@
       <c r="AA87" s="19"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="33">
-        <v>82.0</v>
-      </c>
+      <c r="A88" s="33"/>
       <c r="B88" s="37"/>
       <c r="C88" s="37"/>
       <c r="D88" s="49"/>
@@ -6412,9 +7187,7 @@
       <c r="AA88" s="19"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="33">
-        <v>83.0</v>
-      </c>
+      <c r="A89" s="33"/>
       <c r="B89" s="37"/>
       <c r="C89" s="37"/>
       <c r="D89" s="49"/>
@@ -6443,9 +7216,7 @@
       <c r="AA89" s="19"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="33">
-        <v>84.0</v>
-      </c>
+      <c r="A90" s="33"/>
       <c r="B90" s="37"/>
       <c r="C90" s="37"/>
       <c r="D90" s="49"/>
@@ -6474,9 +7245,7 @@
       <c r="AA90" s="19"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="33">
-        <v>85.0</v>
-      </c>
+      <c r="A91" s="33"/>
       <c r="B91" s="37"/>
       <c r="C91" s="37"/>
       <c r="D91" s="49"/>
@@ -6505,9 +7274,7 @@
       <c r="AA91" s="19"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="33">
-        <v>86.0</v>
-      </c>
+      <c r="A92" s="33"/>
       <c r="B92" s="37"/>
       <c r="C92" s="37"/>
       <c r="D92" s="49"/>
@@ -6536,32 +7303,32 @@
       <c r="AA92" s="19"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="50"/>
-      <c r="B93" s="50"/>
-      <c r="C93" s="50"/>
-      <c r="D93" s="51"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="51"/>
-      <c r="H93" s="51"/>
-      <c r="I93" s="51"/>
-      <c r="J93" s="51"/>
-      <c r="K93" s="51"/>
-      <c r="L93" s="51"/>
-      <c r="M93" s="51"/>
-      <c r="N93" s="51"/>
-      <c r="O93" s="51"/>
-      <c r="P93" s="51"/>
-      <c r="Q93" s="50"/>
-      <c r="R93" s="50"/>
-      <c r="S93" s="50"/>
-      <c r="T93" s="50"/>
-      <c r="U93" s="50"/>
-      <c r="V93" s="50"/>
-      <c r="W93" s="50"/>
-      <c r="X93" s="50"/>
-      <c r="Y93" s="50"/>
-      <c r="Z93" s="50"/>
+      <c r="A93" s="51"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="52"/>
+      <c r="I93" s="52"/>
+      <c r="J93" s="52"/>
+      <c r="K93" s="52"/>
+      <c r="L93" s="52"/>
+      <c r="M93" s="52"/>
+      <c r="N93" s="52"/>
+      <c r="O93" s="52"/>
+      <c r="P93" s="52"/>
+      <c r="Q93" s="51"/>
+      <c r="R93" s="51"/>
+      <c r="S93" s="51"/>
+      <c r="T93" s="51"/>
+      <c r="U93" s="51"/>
+      <c r="V93" s="51"/>
+      <c r="W93" s="51"/>
+      <c r="X93" s="51"/>
+      <c r="Y93" s="51"/>
+      <c r="Z93" s="51"/>
       <c r="AA93" s="6"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
@@ -13052,7 +13819,7 @@
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:P92">
+  <conditionalFormatting sqref="G7:P92 Q7:T84">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>

--- a/attendance-files/GS/GS Attendance.xlsx
+++ b/attendance-files/GS/GS Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="195">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="F7" s="33">
         <f t="shared" ref="F7:F84" si="2">COUNTIF(G7:Z7,"P")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>39</v>
@@ -1749,7 +1749,9 @@
       <c r="T7" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U7" s="37"/>
+      <c r="U7" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V7" s="37"/>
       <c r="W7" s="37"/>
       <c r="X7" s="37"/>
@@ -1774,7 +1776,7 @@
       </c>
       <c r="F8" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>40</v>
@@ -1818,7 +1820,9 @@
       <c r="T8" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="U8" s="37"/>
+      <c r="U8" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V8" s="37"/>
       <c r="W8" s="37"/>
       <c r="X8" s="37"/>
@@ -1839,7 +1843,7 @@
       <c r="D9" s="32"/>
       <c r="E9" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="33">
         <f t="shared" si="2"/>
@@ -1887,7 +1891,9 @@
       <c r="T9" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U9" s="37"/>
+      <c r="U9" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
       <c r="X9" s="37"/>
@@ -1908,7 +1914,7 @@
       <c r="D10" s="32"/>
       <c r="E10" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="33">
         <f t="shared" si="2"/>
@@ -1956,7 +1962,9 @@
       <c r="T10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="37"/>
+      <c r="U10" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
       <c r="X10" s="37"/>
@@ -1981,7 +1989,7 @@
       </c>
       <c r="F11" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>39</v>
@@ -2025,7 +2033,9 @@
       <c r="T11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U11" s="37"/>
+      <c r="U11" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
       <c r="X11" s="37"/>
@@ -2050,7 +2060,7 @@
       </c>
       <c r="F12" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>40</v>
@@ -2094,7 +2104,9 @@
       <c r="T12" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U12" s="37"/>
+      <c r="U12" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
       <c r="X12" s="37"/>
@@ -2115,7 +2127,7 @@
       <c r="D13" s="32"/>
       <c r="E13" s="33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="33">
         <f t="shared" si="2"/>
@@ -2163,7 +2175,9 @@
       <c r="T13" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="U13" s="37"/>
+      <c r="U13" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="V13" s="37"/>
       <c r="W13" s="37"/>
       <c r="X13" s="37"/>
@@ -2188,7 +2202,7 @@
       </c>
       <c r="F14" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>39</v>
@@ -2232,7 +2246,9 @@
       <c r="T14" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U14" s="37"/>
+      <c r="U14" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V14" s="37"/>
       <c r="W14" s="37"/>
       <c r="X14" s="37"/>
@@ -2253,7 +2269,7 @@
       <c r="D15" s="32"/>
       <c r="E15" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="33">
         <f t="shared" si="2"/>
@@ -2301,7 +2317,9 @@
       <c r="T15" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="U15" s="37"/>
+      <c r="U15" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="V15" s="37"/>
       <c r="W15" s="37"/>
       <c r="X15" s="37"/>
@@ -2326,7 +2344,7 @@
       </c>
       <c r="F16" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>40</v>
@@ -2370,7 +2388,9 @@
       <c r="T16" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U16" s="37"/>
+      <c r="U16" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V16" s="37"/>
       <c r="W16" s="37"/>
       <c r="X16" s="37"/>
@@ -2395,7 +2415,7 @@
       </c>
       <c r="F17" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>40</v>
@@ -2439,7 +2459,9 @@
       <c r="T17" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U17" s="37"/>
+      <c r="U17" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V17" s="37"/>
       <c r="W17" s="37"/>
       <c r="X17" s="37"/>
@@ -2460,7 +2482,7 @@
       <c r="D18" s="32"/>
       <c r="E18" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="33">
         <f t="shared" si="2"/>
@@ -2508,7 +2530,9 @@
       <c r="T18" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U18" s="37"/>
+      <c r="U18" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
       <c r="X18" s="37"/>
@@ -2529,7 +2553,7 @@
       <c r="D19" s="32"/>
       <c r="E19" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="33">
         <f t="shared" si="2"/>
@@ -2577,7 +2601,9 @@
       <c r="T19" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U19" s="37"/>
+      <c r="U19" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="V19" s="37"/>
       <c r="W19" s="37"/>
       <c r="X19" s="37"/>
@@ -2602,7 +2628,7 @@
       </c>
       <c r="F20" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>40</v>
@@ -2646,7 +2672,9 @@
       <c r="T20" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="U20" s="37"/>
+      <c r="U20" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V20" s="37"/>
       <c r="W20" s="37"/>
       <c r="X20" s="37"/>
@@ -2671,7 +2699,7 @@
       </c>
       <c r="F21" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" s="34" t="s">
         <v>39</v>
@@ -2715,7 +2743,9 @@
       <c r="T21" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U21" s="37"/>
+      <c r="U21" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V21" s="37"/>
       <c r="W21" s="37"/>
       <c r="X21" s="37"/>
@@ -2740,7 +2770,7 @@
       </c>
       <c r="F22" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>40</v>
@@ -2784,7 +2814,9 @@
       <c r="T22" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U22" s="37"/>
+      <c r="U22" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V22" s="37"/>
       <c r="W22" s="37"/>
       <c r="X22" s="37"/>
@@ -2809,7 +2841,7 @@
       </c>
       <c r="F23" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="40" t="s">
         <v>40</v>
@@ -2853,7 +2885,9 @@
       <c r="T23" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U23" s="37"/>
+      <c r="U23" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V23" s="37"/>
       <c r="W23" s="37"/>
       <c r="X23" s="37"/>
@@ -2878,7 +2912,7 @@
       </c>
       <c r="F24" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G24" s="34" t="s">
         <v>39</v>
@@ -2922,7 +2956,9 @@
       <c r="T24" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U24" s="37"/>
+      <c r="U24" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V24" s="37"/>
       <c r="W24" s="37"/>
       <c r="X24" s="37"/>
@@ -2947,7 +2983,7 @@
       </c>
       <c r="F25" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>40</v>
@@ -2991,7 +3027,9 @@
       <c r="T25" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U25" s="37"/>
+      <c r="U25" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V25" s="37"/>
       <c r="W25" s="37"/>
       <c r="X25" s="37"/>
@@ -3016,7 +3054,7 @@
       </c>
       <c r="F26" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>40</v>
@@ -3060,7 +3098,9 @@
       <c r="T26" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="U26" s="37"/>
+      <c r="U26" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V26" s="37"/>
       <c r="W26" s="37"/>
       <c r="X26" s="37"/>
@@ -3085,7 +3125,7 @@
       </c>
       <c r="F27" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27" s="38" t="s">
         <v>40</v>
@@ -3129,7 +3169,9 @@
       <c r="T27" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U27" s="37"/>
+      <c r="U27" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V27" s="37"/>
       <c r="W27" s="37"/>
       <c r="X27" s="37"/>
@@ -3154,7 +3196,7 @@
       </c>
       <c r="F28" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28" s="34" t="s">
         <v>39</v>
@@ -3198,7 +3240,9 @@
       <c r="T28" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U28" s="37"/>
+      <c r="U28" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V28" s="37"/>
       <c r="W28" s="37"/>
       <c r="X28" s="37"/>
@@ -3223,7 +3267,7 @@
       </c>
       <c r="F29" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" s="40" t="s">
         <v>40</v>
@@ -3267,7 +3311,9 @@
       <c r="T29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U29" s="37"/>
+      <c r="U29" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V29" s="37"/>
       <c r="W29" s="37"/>
       <c r="X29" s="37"/>
@@ -3292,7 +3338,7 @@
       </c>
       <c r="F30" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>40</v>
@@ -3336,7 +3382,9 @@
       <c r="T30" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U30" s="37"/>
+      <c r="U30" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V30" s="37"/>
       <c r="W30" s="37"/>
       <c r="X30" s="37"/>
@@ -3361,7 +3409,7 @@
       </c>
       <c r="F31" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31" s="34" t="s">
         <v>39</v>
@@ -3405,7 +3453,9 @@
       <c r="T31" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U31" s="37"/>
+      <c r="U31" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V31" s="37"/>
       <c r="W31" s="37"/>
       <c r="X31" s="37"/>
@@ -3430,7 +3480,7 @@
       </c>
       <c r="F32" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G32" s="34" t="s">
         <v>39</v>
@@ -3474,7 +3524,9 @@
       <c r="T32" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U32" s="37"/>
+      <c r="U32" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V32" s="37"/>
       <c r="W32" s="37"/>
       <c r="X32" s="37"/>
@@ -3499,7 +3551,7 @@
       </c>
       <c r="F33" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33" s="40" t="s">
         <v>40</v>
@@ -3543,7 +3595,9 @@
       <c r="T33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U33" s="37"/>
+      <c r="U33" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V33" s="37"/>
       <c r="W33" s="37"/>
       <c r="X33" s="37"/>
@@ -3568,7 +3622,7 @@
       </c>
       <c r="F34" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G34" s="40" t="s">
         <v>40</v>
@@ -3612,7 +3666,9 @@
       <c r="T34" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U34" s="37"/>
+      <c r="U34" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V34" s="37"/>
       <c r="W34" s="37"/>
       <c r="X34" s="37"/>
@@ -3637,7 +3693,7 @@
       </c>
       <c r="F35" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35" s="40" t="s">
         <v>40</v>
@@ -3681,7 +3737,9 @@
       <c r="T35" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U35" s="37"/>
+      <c r="U35" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V35" s="37"/>
       <c r="W35" s="37"/>
       <c r="X35" s="37"/>
@@ -3706,7 +3764,7 @@
       </c>
       <c r="F36" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36" s="40" t="s">
         <v>40</v>
@@ -3750,7 +3808,9 @@
       <c r="T36" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U36" s="37"/>
+      <c r="U36" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V36" s="37"/>
       <c r="W36" s="37"/>
       <c r="X36" s="37"/>
@@ -3775,7 +3835,7 @@
       </c>
       <c r="F37" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" s="40" t="s">
         <v>40</v>
@@ -3819,7 +3879,9 @@
       <c r="T37" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U37" s="37"/>
+      <c r="U37" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V37" s="37"/>
       <c r="W37" s="37"/>
       <c r="X37" s="37"/>
@@ -3844,7 +3906,7 @@
       </c>
       <c r="F38" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" s="40" t="s">
         <v>40</v>
@@ -3888,7 +3950,9 @@
       <c r="T38" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U38" s="37"/>
+      <c r="U38" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V38" s="37"/>
       <c r="W38" s="37"/>
       <c r="X38" s="37"/>
@@ -3909,7 +3973,7 @@
       <c r="D39" s="32"/>
       <c r="E39" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="33">
         <f t="shared" si="2"/>
@@ -3957,7 +4021,9 @@
       <c r="T39" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="U39" s="37"/>
+      <c r="U39" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="V39" s="37"/>
       <c r="W39" s="37"/>
       <c r="X39" s="37"/>
@@ -3982,7 +4048,7 @@
       </c>
       <c r="F40" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G40" s="40" t="s">
         <v>40</v>
@@ -4026,7 +4092,9 @@
       <c r="T40" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U40" s="37"/>
+      <c r="U40" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V40" s="37"/>
       <c r="W40" s="37"/>
       <c r="X40" s="37"/>
@@ -4051,7 +4119,7 @@
       </c>
       <c r="F41" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G41" s="40" t="s">
         <v>40</v>
@@ -4095,7 +4163,9 @@
       <c r="T41" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U41" s="37"/>
+      <c r="U41" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V41" s="37"/>
       <c r="W41" s="37"/>
       <c r="X41" s="37"/>
@@ -4120,7 +4190,7 @@
       </c>
       <c r="F42" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G42" s="34" t="s">
         <v>39</v>
@@ -4164,7 +4234,9 @@
       <c r="T42" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U42" s="37"/>
+      <c r="U42" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V42" s="37"/>
       <c r="W42" s="37"/>
       <c r="X42" s="37"/>
@@ -4189,7 +4261,7 @@
       </c>
       <c r="F43" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G43" s="34" t="s">
         <v>39</v>
@@ -4233,7 +4305,9 @@
       <c r="T43" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U43" s="37"/>
+      <c r="U43" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V43" s="37"/>
       <c r="W43" s="37"/>
       <c r="X43" s="37"/>
@@ -4254,7 +4328,7 @@
       <c r="D44" s="32"/>
       <c r="E44" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="33">
         <f t="shared" si="2"/>
@@ -4302,7 +4376,9 @@
       <c r="T44" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U44" s="37"/>
+      <c r="U44" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="V44" s="37"/>
       <c r="W44" s="37"/>
       <c r="X44" s="37"/>
@@ -4327,7 +4403,7 @@
       </c>
       <c r="F45" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>40</v>
@@ -4371,7 +4447,9 @@
       <c r="T45" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U45" s="37"/>
+      <c r="U45" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V45" s="37"/>
       <c r="W45" s="37"/>
       <c r="X45" s="37"/>
@@ -4396,7 +4474,7 @@
       </c>
       <c r="F46" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>40</v>
@@ -4440,7 +4518,9 @@
       <c r="T46" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U46" s="37"/>
+      <c r="U46" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V46" s="37"/>
       <c r="W46" s="37"/>
       <c r="X46" s="37"/>
@@ -4465,7 +4545,7 @@
       </c>
       <c r="F47" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>40</v>
@@ -4509,7 +4589,9 @@
       <c r="T47" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U47" s="37"/>
+      <c r="U47" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V47" s="37"/>
       <c r="W47" s="37"/>
       <c r="X47" s="37"/>
@@ -4534,7 +4616,7 @@
       </c>
       <c r="F48" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" s="40" t="s">
         <v>40</v>
@@ -4578,7 +4660,9 @@
       <c r="T48" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U48" s="37"/>
+      <c r="U48" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V48" s="37"/>
       <c r="W48" s="37"/>
       <c r="X48" s="37"/>
@@ -4603,7 +4687,7 @@
       </c>
       <c r="F49" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G49" s="34" t="s">
         <v>39</v>
@@ -4647,7 +4731,9 @@
       <c r="T49" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U49" s="37"/>
+      <c r="U49" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V49" s="37"/>
       <c r="W49" s="37"/>
       <c r="X49" s="37"/>
@@ -4668,7 +4754,7 @@
       <c r="D50" s="32"/>
       <c r="E50" s="33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F50" s="33">
         <f t="shared" si="2"/>
@@ -4716,7 +4802,9 @@
       <c r="T50" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U50" s="37"/>
+      <c r="U50" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="V50" s="37"/>
       <c r="W50" s="37"/>
       <c r="X50" s="37"/>
@@ -4741,7 +4829,7 @@
       </c>
       <c r="F51" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" s="40" t="s">
         <v>40</v>
@@ -4785,7 +4873,9 @@
       <c r="T51" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U51" s="37"/>
+      <c r="U51" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V51" s="37"/>
       <c r="W51" s="37"/>
       <c r="X51" s="37"/>
@@ -4810,7 +4900,7 @@
       </c>
       <c r="F52" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G52" s="34" t="s">
         <v>39</v>
@@ -4854,7 +4944,9 @@
       <c r="T52" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U52" s="37"/>
+      <c r="U52" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V52" s="37"/>
       <c r="W52" s="37"/>
       <c r="X52" s="37"/>
@@ -4879,7 +4971,7 @@
       </c>
       <c r="F53" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G53" s="40" t="s">
         <v>40</v>
@@ -4923,7 +5015,9 @@
       <c r="T53" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U53" s="37"/>
+      <c r="U53" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V53" s="37"/>
       <c r="W53" s="37"/>
       <c r="X53" s="37"/>
@@ -4948,7 +5042,7 @@
       </c>
       <c r="F54" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G54" s="40" t="s">
         <v>40</v>
@@ -4992,7 +5086,9 @@
       <c r="T54" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U54" s="37"/>
+      <c r="U54" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V54" s="37"/>
       <c r="W54" s="37"/>
       <c r="X54" s="37"/>
@@ -5017,7 +5113,7 @@
       </c>
       <c r="F55" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G55" s="34" t="s">
         <v>39</v>
@@ -5061,7 +5157,9 @@
       <c r="T55" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U55" s="37"/>
+      <c r="U55" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V55" s="37"/>
       <c r="W55" s="37"/>
       <c r="X55" s="37"/>
@@ -5086,7 +5184,7 @@
       </c>
       <c r="F56" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>40</v>
@@ -5130,7 +5228,9 @@
       <c r="T56" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U56" s="37"/>
+      <c r="U56" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V56" s="37"/>
       <c r="W56" s="37"/>
       <c r="X56" s="37"/>
@@ -5155,7 +5255,7 @@
       </c>
       <c r="F57" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>40</v>
@@ -5199,7 +5299,9 @@
       <c r="T57" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U57" s="37"/>
+      <c r="U57" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V57" s="37"/>
       <c r="W57" s="37"/>
       <c r="X57" s="37"/>
@@ -5224,7 +5326,7 @@
       </c>
       <c r="F58" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>40</v>
@@ -5268,7 +5370,9 @@
       <c r="T58" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U58" s="37"/>
+      <c r="U58" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V58" s="37"/>
       <c r="W58" s="37"/>
       <c r="X58" s="37"/>
@@ -5293,7 +5397,7 @@
       </c>
       <c r="F59" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G59" s="34" t="s">
         <v>39</v>
@@ -5337,7 +5441,9 @@
       <c r="T59" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U59" s="37"/>
+      <c r="U59" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V59" s="37"/>
       <c r="W59" s="37"/>
       <c r="X59" s="37"/>
@@ -5358,7 +5464,7 @@
       <c r="D60" s="32"/>
       <c r="E60" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="33">
         <f t="shared" si="2"/>
@@ -5406,7 +5512,9 @@
       <c r="T60" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U60" s="37"/>
+      <c r="U60" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="V60" s="37"/>
       <c r="W60" s="37"/>
       <c r="X60" s="37"/>
@@ -5431,7 +5539,7 @@
       </c>
       <c r="F61" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" s="40" t="s">
         <v>40</v>
@@ -5475,7 +5583,9 @@
       <c r="T61" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="U61" s="37"/>
+      <c r="U61" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V61" s="37"/>
       <c r="W61" s="37"/>
       <c r="X61" s="37"/>
@@ -5500,7 +5610,7 @@
       </c>
       <c r="F62" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G62" s="34" t="s">
         <v>39</v>
@@ -5544,7 +5654,9 @@
       <c r="T62" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U62" s="37"/>
+      <c r="U62" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V62" s="37"/>
       <c r="W62" s="37"/>
       <c r="X62" s="37"/>
@@ -5569,7 +5681,7 @@
       </c>
       <c r="F63" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>40</v>
@@ -5613,7 +5725,9 @@
       <c r="T63" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U63" s="37"/>
+      <c r="U63" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V63" s="37"/>
       <c r="W63" s="37"/>
       <c r="X63" s="37"/>
@@ -5638,7 +5752,7 @@
       </c>
       <c r="F64" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G64" s="38" t="s">
         <v>40</v>
@@ -5682,7 +5796,9 @@
       <c r="T64" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U64" s="37"/>
+      <c r="U64" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V64" s="37"/>
       <c r="W64" s="37"/>
       <c r="X64" s="37"/>
@@ -5707,7 +5823,7 @@
       </c>
       <c r="F65" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>40</v>
@@ -5751,7 +5867,9 @@
       <c r="T65" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U65" s="37"/>
+      <c r="U65" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V65" s="37"/>
       <c r="W65" s="37"/>
       <c r="X65" s="37"/>
@@ -5776,7 +5894,7 @@
       </c>
       <c r="F66" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" s="34" t="s">
         <v>39</v>
@@ -5820,7 +5938,9 @@
       <c r="T66" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U66" s="37"/>
+      <c r="U66" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V66" s="37"/>
       <c r="W66" s="37"/>
       <c r="X66" s="37"/>
@@ -5845,7 +5965,7 @@
       </c>
       <c r="F67" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G67" s="40" t="s">
         <v>40</v>
@@ -5889,7 +6009,9 @@
       <c r="T67" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="U67" s="37"/>
+      <c r="U67" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V67" s="37"/>
       <c r="W67" s="37"/>
       <c r="X67" s="37"/>
@@ -5914,7 +6036,7 @@
       </c>
       <c r="F68" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G68" s="40" t="s">
         <v>40</v>
@@ -5958,7 +6080,9 @@
       <c r="T68" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U68" s="37"/>
+      <c r="U68" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V68" s="37"/>
       <c r="W68" s="37"/>
       <c r="X68" s="37"/>
@@ -5983,7 +6107,7 @@
       </c>
       <c r="F69" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G69" s="40" t="s">
         <v>40</v>
@@ -6027,7 +6151,9 @@
       <c r="T69" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U69" s="37"/>
+      <c r="U69" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V69" s="37"/>
       <c r="W69" s="37"/>
       <c r="X69" s="37"/>
@@ -6052,7 +6178,7 @@
       </c>
       <c r="F70" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G70" s="34" t="s">
         <v>39</v>
@@ -6096,7 +6222,9 @@
       <c r="T70" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U70" s="37"/>
+      <c r="U70" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V70" s="37"/>
       <c r="W70" s="37"/>
       <c r="X70" s="37"/>
@@ -6121,7 +6249,7 @@
       </c>
       <c r="F71" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>40</v>
@@ -6165,7 +6293,9 @@
       <c r="T71" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U71" s="37"/>
+      <c r="U71" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V71" s="37"/>
       <c r="W71" s="37"/>
       <c r="X71" s="37"/>
@@ -6190,7 +6320,7 @@
       </c>
       <c r="F72" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>40</v>
@@ -6234,7 +6364,9 @@
       <c r="T72" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U72" s="37"/>
+      <c r="U72" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V72" s="37"/>
       <c r="W72" s="37"/>
       <c r="X72" s="37"/>
@@ -6259,7 +6391,7 @@
       </c>
       <c r="F73" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>40</v>
@@ -6303,7 +6435,9 @@
       <c r="T73" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U73" s="37"/>
+      <c r="U73" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V73" s="37"/>
       <c r="W73" s="37"/>
       <c r="X73" s="37"/>
@@ -6328,7 +6462,7 @@
       </c>
       <c r="F74" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" s="34" t="s">
         <v>39</v>
@@ -6372,7 +6506,9 @@
       <c r="T74" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U74" s="37"/>
+      <c r="U74" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V74" s="37"/>
       <c r="W74" s="37"/>
       <c r="X74" s="37"/>
@@ -6397,7 +6533,7 @@
       </c>
       <c r="F75" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G75" s="40" t="s">
         <v>40</v>
@@ -6441,7 +6577,9 @@
       <c r="T75" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U75" s="37"/>
+      <c r="U75" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V75" s="37"/>
       <c r="W75" s="37"/>
       <c r="X75" s="37"/>
@@ -6466,7 +6604,7 @@
       </c>
       <c r="F76" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G76" s="34" t="s">
         <v>39</v>
@@ -6510,7 +6648,9 @@
       <c r="T76" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U76" s="37"/>
+      <c r="U76" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V76" s="37"/>
       <c r="W76" s="37"/>
       <c r="X76" s="37"/>
@@ -6535,7 +6675,7 @@
       </c>
       <c r="F77" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G77" s="38" t="s">
         <v>40</v>
@@ -6579,7 +6719,9 @@
       <c r="T77" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U77" s="37"/>
+      <c r="U77" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V77" s="37"/>
       <c r="W77" s="37"/>
       <c r="X77" s="37"/>
@@ -6604,7 +6746,7 @@
       </c>
       <c r="F78" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G78" s="38" t="s">
         <v>40</v>
@@ -6648,7 +6790,9 @@
       <c r="T78" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U78" s="37"/>
+      <c r="U78" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V78" s="37"/>
       <c r="W78" s="37"/>
       <c r="X78" s="37"/>
@@ -6673,7 +6817,7 @@
       </c>
       <c r="F79" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" s="38" t="s">
         <v>40</v>
@@ -6717,7 +6861,9 @@
       <c r="T79" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U79" s="37"/>
+      <c r="U79" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V79" s="37"/>
       <c r="W79" s="37"/>
       <c r="X79" s="37"/>
@@ -6742,7 +6888,7 @@
       </c>
       <c r="F80" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G80" s="38" t="s">
         <v>40</v>
@@ -6786,7 +6932,9 @@
       <c r="T80" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U80" s="37"/>
+      <c r="U80" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V80" s="37"/>
       <c r="W80" s="37"/>
       <c r="X80" s="37"/>
@@ -6811,7 +6959,7 @@
       </c>
       <c r="F81" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G81" s="38" t="s">
         <v>40</v>
@@ -6855,7 +7003,9 @@
       <c r="T81" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U81" s="37"/>
+      <c r="U81" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V81" s="37"/>
       <c r="W81" s="37"/>
       <c r="X81" s="37"/>
@@ -6880,7 +7030,7 @@
       </c>
       <c r="F82" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G82" s="34" t="s">
         <v>39</v>
@@ -6924,7 +7074,9 @@
       <c r="T82" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U82" s="37"/>
+      <c r="U82" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V82" s="37"/>
       <c r="W82" s="37"/>
       <c r="X82" s="37"/>
@@ -6949,7 +7101,7 @@
       </c>
       <c r="F83" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G83" s="34" t="s">
         <v>39</v>
@@ -6993,7 +7145,9 @@
       <c r="T83" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U83" s="37"/>
+      <c r="U83" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="V83" s="37"/>
       <c r="W83" s="37"/>
       <c r="X83" s="37"/>
@@ -7014,7 +7168,7 @@
       <c r="D84" s="32"/>
       <c r="E84" s="33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F84" s="33">
         <f t="shared" si="2"/>
@@ -7062,7 +7216,9 @@
       <c r="T84" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="U84" s="37"/>
+      <c r="U84" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="V84" s="37"/>
       <c r="W84" s="37"/>
       <c r="X84" s="37"/>
@@ -13819,7 +13975,7 @@
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:P92 Q7:T84">
+  <conditionalFormatting sqref="G7:P92 Q7:U84">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>

--- a/attendance-files/GS/GS Attendance.xlsx
+++ b/attendance-files/GS/GS Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="195">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="F7" s="33">
         <f t="shared" ref="F7:F84" si="2">COUNTIF(G7:Z7,"P")</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>39</v>
@@ -1752,9 +1752,15 @@
       <c r="U7" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
+      <c r="V7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y7" s="37"/>
       <c r="Z7" s="37"/>
       <c r="AA7" s="19"/>
@@ -1776,7 +1782,7 @@
       </c>
       <c r="F8" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>40</v>
@@ -1823,9 +1829,15 @@
       <c r="U8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
+      <c r="V8" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X8" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y8" s="37"/>
       <c r="Z8" s="37"/>
       <c r="AA8" s="19"/>
@@ -1847,7 +1859,7 @@
       </c>
       <c r="F9" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>40</v>
@@ -1894,9 +1906,15 @@
       <c r="U9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
+      <c r="V9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y9" s="37"/>
       <c r="Z9" s="37"/>
       <c r="AA9" s="19"/>
@@ -1914,11 +1932,11 @@
       <c r="D10" s="32"/>
       <c r="E10" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>40</v>
@@ -1965,9 +1983,15 @@
       <c r="U10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
+      <c r="V10" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y10" s="37"/>
       <c r="Z10" s="37"/>
       <c r="AA10" s="19"/>
@@ -1989,7 +2013,7 @@
       </c>
       <c r="F11" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>39</v>
@@ -2036,9 +2060,15 @@
       <c r="U11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
+      <c r="V11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y11" s="37"/>
       <c r="Z11" s="37"/>
       <c r="AA11" s="19"/>
@@ -2060,7 +2090,7 @@
       </c>
       <c r="F12" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>40</v>
@@ -2107,9 +2137,15 @@
       <c r="U12" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
+      <c r="V12" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y12" s="37"/>
       <c r="Z12" s="37"/>
       <c r="AA12" s="19"/>
@@ -2131,7 +2167,7 @@
       </c>
       <c r="F13" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>40</v>
@@ -2178,9 +2214,15 @@
       <c r="U13" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
+      <c r="V13" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y13" s="37"/>
       <c r="Z13" s="37"/>
       <c r="AA13" s="19"/>
@@ -2202,7 +2244,7 @@
       </c>
       <c r="F14" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>39</v>
@@ -2249,9 +2291,15 @@
       <c r="U14" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
+      <c r="V14" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W14" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X14" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y14" s="37"/>
       <c r="Z14" s="37"/>
       <c r="AA14" s="19"/>
@@ -2273,7 +2321,7 @@
       </c>
       <c r="F15" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>40</v>
@@ -2320,9 +2368,15 @@
       <c r="U15" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
+      <c r="V15" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W15" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y15" s="37"/>
       <c r="Z15" s="37"/>
       <c r="AA15" s="19"/>
@@ -2344,7 +2398,7 @@
       </c>
       <c r="F16" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>40</v>
@@ -2391,9 +2445,15 @@
       <c r="U16" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
+      <c r="V16" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W16" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X16" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y16" s="37"/>
       <c r="Z16" s="37"/>
       <c r="AA16" s="19"/>
@@ -2415,7 +2475,7 @@
       </c>
       <c r="F17" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>40</v>
@@ -2462,9 +2522,15 @@
       <c r="U17" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
+      <c r="V17" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W17" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X17" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y17" s="37"/>
       <c r="Z17" s="37"/>
       <c r="AA17" s="19"/>
@@ -2482,11 +2548,11 @@
       <c r="D18" s="32"/>
       <c r="E18" s="33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>39</v>
@@ -2533,9 +2599,15 @@
       <c r="U18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
+      <c r="V18" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X18" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y18" s="37"/>
       <c r="Z18" s="37"/>
       <c r="AA18" s="19"/>
@@ -2557,7 +2629,7 @@
       </c>
       <c r="F19" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G19" s="40" t="s">
         <v>40</v>
@@ -2604,9 +2676,15 @@
       <c r="U19" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
+      <c r="V19" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W19" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y19" s="37"/>
       <c r="Z19" s="37"/>
       <c r="AA19" s="19"/>
@@ -2628,7 +2706,7 @@
       </c>
       <c r="F20" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>40</v>
@@ -2675,9 +2753,15 @@
       <c r="U20" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
+      <c r="V20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X20" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y20" s="37"/>
       <c r="Z20" s="37"/>
       <c r="AA20" s="19"/>
@@ -2699,7 +2783,7 @@
       </c>
       <c r="F21" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G21" s="34" t="s">
         <v>39</v>
@@ -2746,9 +2830,15 @@
       <c r="U21" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
+      <c r="V21" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W21" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X21" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y21" s="37"/>
       <c r="Z21" s="37"/>
       <c r="AA21" s="19"/>
@@ -2770,7 +2860,7 @@
       </c>
       <c r="F22" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>40</v>
@@ -2817,9 +2907,15 @@
       <c r="U22" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
+      <c r="V22" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W22" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X22" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y22" s="37"/>
       <c r="Z22" s="37"/>
       <c r="AA22" s="19"/>
@@ -2837,11 +2933,11 @@
       <c r="D23" s="32"/>
       <c r="E23" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G23" s="40" t="s">
         <v>40</v>
@@ -2888,9 +2984,15 @@
       <c r="U23" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
+      <c r="V23" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X23" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y23" s="37"/>
       <c r="Z23" s="37"/>
       <c r="AA23" s="19"/>
@@ -2912,7 +3014,7 @@
       </c>
       <c r="F24" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G24" s="34" t="s">
         <v>39</v>
@@ -2959,9 +3061,15 @@
       <c r="U24" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
+      <c r="V24" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W24" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X24" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y24" s="37"/>
       <c r="Z24" s="37"/>
       <c r="AA24" s="19"/>
@@ -2983,7 +3091,7 @@
       </c>
       <c r="F25" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>40</v>
@@ -3030,9 +3138,15 @@
       <c r="U25" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
+      <c r="V25" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W25" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X25" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y25" s="37"/>
       <c r="Z25" s="37"/>
       <c r="AA25" s="19"/>
@@ -3054,7 +3168,7 @@
       </c>
       <c r="F26" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>40</v>
@@ -3101,9 +3215,15 @@
       <c r="U26" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
+      <c r="V26" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W26" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X26" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y26" s="37"/>
       <c r="Z26" s="37"/>
       <c r="AA26" s="19"/>
@@ -3125,7 +3245,7 @@
       </c>
       <c r="F27" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G27" s="38" t="s">
         <v>40</v>
@@ -3172,9 +3292,15 @@
       <c r="U27" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
+      <c r="V27" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W27" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X27" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y27" s="37"/>
       <c r="Z27" s="37"/>
       <c r="AA27" s="19"/>
@@ -3192,11 +3318,11 @@
       <c r="D28" s="32"/>
       <c r="E28" s="33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G28" s="34" t="s">
         <v>39</v>
@@ -3243,9 +3369,15 @@
       <c r="U28" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
+      <c r="V28" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W28" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X28" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="Y28" s="37"/>
       <c r="Z28" s="37"/>
       <c r="AA28" s="19"/>
@@ -3263,11 +3395,11 @@
       <c r="D29" s="32"/>
       <c r="E29" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G29" s="40" t="s">
         <v>40</v>
@@ -3314,9 +3446,15 @@
       <c r="U29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
+      <c r="V29" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="W29" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X29" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y29" s="37"/>
       <c r="Z29" s="37"/>
       <c r="AA29" s="19"/>
@@ -3338,7 +3476,7 @@
       </c>
       <c r="F30" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>40</v>
@@ -3385,9 +3523,15 @@
       <c r="U30" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
+      <c r="V30" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W30" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X30" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y30" s="37"/>
       <c r="Z30" s="37"/>
       <c r="AA30" s="19"/>
@@ -3405,11 +3549,11 @@
       <c r="D31" s="32"/>
       <c r="E31" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G31" s="34" t="s">
         <v>39</v>
@@ -3456,9 +3600,15 @@
       <c r="U31" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
+      <c r="V31" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W31" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="X31" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="19"/>
@@ -3476,11 +3626,11 @@
       <c r="D32" s="32"/>
       <c r="E32" s="33">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F32" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G32" s="34" t="s">
         <v>39</v>
@@ -3527,9 +3677,15 @@
       <c r="U32" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
+      <c r="V32" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="W32" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X32" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y32" s="37"/>
       <c r="Z32" s="37"/>
       <c r="AA32" s="19"/>
@@ -3551,7 +3707,7 @@
       </c>
       <c r="F33" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G33" s="40" t="s">
         <v>40</v>
@@ -3598,9 +3754,15 @@
       <c r="U33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
+      <c r="V33" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W33" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X33" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y33" s="37"/>
       <c r="Z33" s="37"/>
       <c r="AA33" s="19"/>
@@ -3622,7 +3784,7 @@
       </c>
       <c r="F34" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G34" s="40" t="s">
         <v>40</v>
@@ -3669,9 +3831,15 @@
       <c r="U34" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
+      <c r="V34" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W34" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X34" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y34" s="37"/>
       <c r="Z34" s="37"/>
       <c r="AA34" s="19"/>
@@ -3689,11 +3857,11 @@
       <c r="D35" s="32"/>
       <c r="E35" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G35" s="40" t="s">
         <v>40</v>
@@ -3740,9 +3908,15 @@
       <c r="U35" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
+      <c r="V35" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="W35" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="X35" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y35" s="37"/>
       <c r="Z35" s="37"/>
       <c r="AA35" s="19"/>
@@ -3764,7 +3938,7 @@
       </c>
       <c r="F36" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G36" s="40" t="s">
         <v>40</v>
@@ -3811,9 +3985,15 @@
       <c r="U36" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
+      <c r="V36" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W36" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X36" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y36" s="37"/>
       <c r="Z36" s="37"/>
       <c r="AA36" s="19"/>
@@ -3831,11 +4011,11 @@
       <c r="D37" s="32"/>
       <c r="E37" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G37" s="40" t="s">
         <v>40</v>
@@ -3882,9 +4062,15 @@
       <c r="U37" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
+      <c r="V37" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W37" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="X37" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y37" s="37"/>
       <c r="Z37" s="37"/>
       <c r="AA37" s="19"/>
@@ -3906,7 +4092,7 @@
       </c>
       <c r="F38" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G38" s="40" t="s">
         <v>40</v>
@@ -3953,9 +4139,15 @@
       <c r="U38" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
+      <c r="V38" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W38" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X38" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y38" s="37"/>
       <c r="Z38" s="37"/>
       <c r="AA38" s="19"/>
@@ -3977,7 +4169,7 @@
       </c>
       <c r="F39" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G39" s="40" t="s">
         <v>40</v>
@@ -4024,9 +4216,15 @@
       <c r="U39" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
+      <c r="V39" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W39" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X39" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y39" s="37"/>
       <c r="Z39" s="37"/>
       <c r="AA39" s="19"/>
@@ -4048,7 +4246,7 @@
       </c>
       <c r="F40" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G40" s="40" t="s">
         <v>40</v>
@@ -4095,9 +4293,15 @@
       <c r="U40" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
+      <c r="V40" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W40" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X40" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y40" s="37"/>
       <c r="Z40" s="37"/>
       <c r="AA40" s="19"/>
@@ -4115,11 +4319,11 @@
       <c r="D41" s="32"/>
       <c r="E41" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G41" s="40" t="s">
         <v>40</v>
@@ -4166,9 +4370,15 @@
       <c r="U41" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
+      <c r="V41" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W41" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X41" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="Y41" s="37"/>
       <c r="Z41" s="37"/>
       <c r="AA41" s="19"/>
@@ -4186,11 +4396,11 @@
       <c r="D42" s="32"/>
       <c r="E42" s="33">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F42" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G42" s="34" t="s">
         <v>39</v>
@@ -4237,9 +4447,15 @@
       <c r="U42" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
+      <c r="V42" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="W42" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X42" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y42" s="37"/>
       <c r="Z42" s="37"/>
       <c r="AA42" s="19"/>
@@ -4261,7 +4477,7 @@
       </c>
       <c r="F43" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G43" s="34" t="s">
         <v>39</v>
@@ -4308,9 +4524,15 @@
       <c r="U43" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
+      <c r="V43" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W43" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X43" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y43" s="37"/>
       <c r="Z43" s="37"/>
       <c r="AA43" s="19"/>
@@ -4328,7 +4550,7 @@
       <c r="D44" s="32"/>
       <c r="E44" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F44" s="33">
         <f t="shared" si="2"/>
@@ -4379,9 +4601,15 @@
       <c r="U44" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
+      <c r="V44" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="W44" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="X44" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="Y44" s="37"/>
       <c r="Z44" s="37"/>
       <c r="AA44" s="19"/>
@@ -4399,11 +4627,11 @@
       <c r="D45" s="32"/>
       <c r="E45" s="33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F45" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>40</v>
@@ -4450,9 +4678,15 @@
       <c r="U45" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
+      <c r="V45" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="W45" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X45" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y45" s="37"/>
       <c r="Z45" s="37"/>
       <c r="AA45" s="19"/>
@@ -4474,7 +4708,7 @@
       </c>
       <c r="F46" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>40</v>
@@ -4521,9 +4755,15 @@
       <c r="U46" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
+      <c r="V46" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W46" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X46" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y46" s="37"/>
       <c r="Z46" s="37"/>
       <c r="AA46" s="19"/>
@@ -4545,7 +4785,7 @@
       </c>
       <c r="F47" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>40</v>
@@ -4592,9 +4832,15 @@
       <c r="U47" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
+      <c r="V47" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W47" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X47" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y47" s="37"/>
       <c r="Z47" s="37"/>
       <c r="AA47" s="19"/>
@@ -4616,7 +4862,7 @@
       </c>
       <c r="F48" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G48" s="40" t="s">
         <v>40</v>
@@ -4663,9 +4909,15 @@
       <c r="U48" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
+      <c r="V48" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W48" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X48" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y48" s="37"/>
       <c r="Z48" s="37"/>
       <c r="AA48" s="19"/>
@@ -4683,11 +4935,11 @@
       <c r="D49" s="32"/>
       <c r="E49" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F49" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G49" s="34" t="s">
         <v>39</v>
@@ -4734,9 +4986,15 @@
       <c r="U49" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
+      <c r="V49" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W49" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="X49" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y49" s="37"/>
       <c r="Z49" s="37"/>
       <c r="AA49" s="19"/>
@@ -4758,7 +5016,7 @@
       </c>
       <c r="F50" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G50" s="34" t="s">
         <v>39</v>
@@ -4805,9 +5063,15 @@
       <c r="U50" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
+      <c r="V50" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W50" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X50" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y50" s="37"/>
       <c r="Z50" s="37"/>
       <c r="AA50" s="19"/>
@@ -4829,7 +5093,7 @@
       </c>
       <c r="F51" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G51" s="40" t="s">
         <v>40</v>
@@ -4876,9 +5140,15 @@
       <c r="U51" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V51" s="37"/>
-      <c r="W51" s="37"/>
-      <c r="X51" s="37"/>
+      <c r="V51" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W51" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X51" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y51" s="37"/>
       <c r="Z51" s="37"/>
       <c r="AA51" s="19"/>
@@ -4900,7 +5170,7 @@
       </c>
       <c r="F52" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G52" s="34" t="s">
         <v>39</v>
@@ -4947,9 +5217,15 @@
       <c r="U52" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V52" s="37"/>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37"/>
+      <c r="V52" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W52" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X52" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y52" s="37"/>
       <c r="Z52" s="37"/>
       <c r="AA52" s="19"/>
@@ -4967,11 +5243,11 @@
       <c r="D53" s="32"/>
       <c r="E53" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G53" s="40" t="s">
         <v>40</v>
@@ -5018,9 +5294,15 @@
       <c r="U53" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V53" s="37"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
+      <c r="V53" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="W53" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X53" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y53" s="37"/>
       <c r="Z53" s="37"/>
       <c r="AA53" s="19"/>
@@ -5042,7 +5324,7 @@
       </c>
       <c r="F54" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G54" s="40" t="s">
         <v>40</v>
@@ -5089,9 +5371,15 @@
       <c r="U54" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V54" s="37"/>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
+      <c r="V54" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W54" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X54" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y54" s="37"/>
       <c r="Z54" s="37"/>
       <c r="AA54" s="19"/>
@@ -5109,11 +5397,11 @@
       <c r="D55" s="32"/>
       <c r="E55" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G55" s="34" t="s">
         <v>39</v>
@@ -5160,9 +5448,15 @@
       <c r="U55" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
+      <c r="V55" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W55" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="X55" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y55" s="37"/>
       <c r="Z55" s="37"/>
       <c r="AA55" s="19"/>
@@ -5180,11 +5474,11 @@
       <c r="D56" s="32"/>
       <c r="E56" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F56" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>40</v>
@@ -5231,9 +5525,15 @@
       <c r="U56" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
+      <c r="V56" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W56" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="X56" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y56" s="37"/>
       <c r="Z56" s="37"/>
       <c r="AA56" s="19"/>
@@ -5251,11 +5551,11 @@
       <c r="D57" s="32"/>
       <c r="E57" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>40</v>
@@ -5302,9 +5602,15 @@
       <c r="U57" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
+      <c r="V57" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W57" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="X57" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y57" s="37"/>
       <c r="Z57" s="37"/>
       <c r="AA57" s="19"/>
@@ -5326,7 +5632,7 @@
       </c>
       <c r="F58" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>40</v>
@@ -5373,9 +5679,15 @@
       <c r="U58" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V58" s="37"/>
-      <c r="W58" s="37"/>
-      <c r="X58" s="37"/>
+      <c r="V58" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W58" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X58" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y58" s="37"/>
       <c r="Z58" s="37"/>
       <c r="AA58" s="19"/>
@@ -5397,7 +5709,7 @@
       </c>
       <c r="F59" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G59" s="34" t="s">
         <v>39</v>
@@ -5444,9 +5756,15 @@
       <c r="U59" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V59" s="37"/>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
+      <c r="V59" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W59" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X59" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y59" s="37"/>
       <c r="Z59" s="37"/>
       <c r="AA59" s="19"/>
@@ -5464,11 +5782,11 @@
       <c r="D60" s="32"/>
       <c r="E60" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F60" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G60" s="34" t="s">
         <v>39</v>
@@ -5515,9 +5833,15 @@
       <c r="U60" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="V60" s="37"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
+      <c r="V60" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W60" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X60" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="Y60" s="37"/>
       <c r="Z60" s="37"/>
       <c r="AA60" s="19"/>
@@ -5539,7 +5863,7 @@
       </c>
       <c r="F61" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G61" s="40" t="s">
         <v>40</v>
@@ -5586,9 +5910,15 @@
       <c r="U61" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
+      <c r="V61" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W61" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X61" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y61" s="37"/>
       <c r="Z61" s="37"/>
       <c r="AA61" s="19"/>
@@ -5610,7 +5940,7 @@
       </c>
       <c r="F62" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G62" s="34" t="s">
         <v>39</v>
@@ -5657,9 +5987,15 @@
       <c r="U62" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
+      <c r="V62" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W62" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X62" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y62" s="37"/>
       <c r="Z62" s="37"/>
       <c r="AA62" s="19"/>
@@ -5681,7 +6017,7 @@
       </c>
       <c r="F63" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>40</v>
@@ -5728,9 +6064,15 @@
       <c r="U63" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V63" s="37"/>
-      <c r="W63" s="37"/>
-      <c r="X63" s="37"/>
+      <c r="V63" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W63" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X63" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y63" s="37"/>
       <c r="Z63" s="37"/>
       <c r="AA63" s="19"/>
@@ -5748,11 +6090,11 @@
       <c r="D64" s="32"/>
       <c r="E64" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F64" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G64" s="38" t="s">
         <v>40</v>
@@ -5799,9 +6141,15 @@
       <c r="U64" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
+      <c r="V64" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W64" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="X64" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y64" s="37"/>
       <c r="Z64" s="37"/>
       <c r="AA64" s="19"/>
@@ -5819,11 +6167,11 @@
       <c r="D65" s="32"/>
       <c r="E65" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F65" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>40</v>
@@ -5870,9 +6218,15 @@
       <c r="U65" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V65" s="37"/>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
+      <c r="V65" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W65" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="X65" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y65" s="37"/>
       <c r="Z65" s="37"/>
       <c r="AA65" s="19"/>
@@ -5894,7 +6248,7 @@
       </c>
       <c r="F66" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G66" s="34" t="s">
         <v>39</v>
@@ -5941,9 +6295,15 @@
       <c r="U66" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V66" s="37"/>
-      <c r="W66" s="37"/>
-      <c r="X66" s="37"/>
+      <c r="V66" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W66" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X66" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y66" s="37"/>
       <c r="Z66" s="37"/>
       <c r="AA66" s="19"/>
@@ -5965,7 +6325,7 @@
       </c>
       <c r="F67" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G67" s="40" t="s">
         <v>40</v>
@@ -6012,9 +6372,15 @@
       <c r="U67" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V67" s="37"/>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
+      <c r="V67" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W67" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X67" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y67" s="37"/>
       <c r="Z67" s="37"/>
       <c r="AA67" s="19"/>
@@ -6036,7 +6402,7 @@
       </c>
       <c r="F68" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G68" s="40" t="s">
         <v>40</v>
@@ -6083,9 +6449,15 @@
       <c r="U68" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V68" s="37"/>
-      <c r="W68" s="37"/>
-      <c r="X68" s="37"/>
+      <c r="V68" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W68" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X68" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y68" s="37"/>
       <c r="Z68" s="37"/>
       <c r="AA68" s="19"/>
@@ -6103,11 +6475,11 @@
       <c r="D69" s="32"/>
       <c r="E69" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F69" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G69" s="40" t="s">
         <v>40</v>
@@ -6154,9 +6526,15 @@
       <c r="U69" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V69" s="37"/>
-      <c r="W69" s="37"/>
-      <c r="X69" s="37"/>
+      <c r="V69" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="W69" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X69" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="Y69" s="37"/>
       <c r="Z69" s="37"/>
       <c r="AA69" s="19"/>
@@ -6178,7 +6556,7 @@
       </c>
       <c r="F70" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G70" s="34" t="s">
         <v>39</v>
@@ -6225,9 +6603,15 @@
       <c r="U70" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V70" s="37"/>
-      <c r="W70" s="37"/>
-      <c r="X70" s="37"/>
+      <c r="V70" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W70" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X70" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y70" s="37"/>
       <c r="Z70" s="37"/>
       <c r="AA70" s="19"/>
@@ -6249,7 +6633,7 @@
       </c>
       <c r="F71" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>40</v>
@@ -6296,9 +6680,15 @@
       <c r="U71" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V71" s="37"/>
-      <c r="W71" s="37"/>
-      <c r="X71" s="37"/>
+      <c r="V71" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W71" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X71" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y71" s="37"/>
       <c r="Z71" s="37"/>
       <c r="AA71" s="19"/>
@@ -6320,7 +6710,7 @@
       </c>
       <c r="F72" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>40</v>
@@ -6367,9 +6757,15 @@
       <c r="U72" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V72" s="37"/>
-      <c r="W72" s="37"/>
-      <c r="X72" s="37"/>
+      <c r="V72" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W72" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X72" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y72" s="37"/>
       <c r="Z72" s="37"/>
       <c r="AA72" s="19"/>
@@ -6387,11 +6783,11 @@
       <c r="D73" s="32"/>
       <c r="E73" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>40</v>
@@ -6438,9 +6834,15 @@
       <c r="U73" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V73" s="37"/>
-      <c r="W73" s="37"/>
-      <c r="X73" s="37"/>
+      <c r="V73" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W73" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="X73" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y73" s="37"/>
       <c r="Z73" s="37"/>
       <c r="AA73" s="19"/>
@@ -6462,7 +6864,7 @@
       </c>
       <c r="F74" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G74" s="34" t="s">
         <v>39</v>
@@ -6509,9 +6911,15 @@
       <c r="U74" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V74" s="37"/>
-      <c r="W74" s="37"/>
-      <c r="X74" s="37"/>
+      <c r="V74" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W74" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X74" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y74" s="37"/>
       <c r="Z74" s="37"/>
       <c r="AA74" s="19"/>
@@ -6529,11 +6937,11 @@
       <c r="D75" s="32"/>
       <c r="E75" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G75" s="40" t="s">
         <v>40</v>
@@ -6580,9 +6988,15 @@
       <c r="U75" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V75" s="37"/>
-      <c r="W75" s="37"/>
-      <c r="X75" s="37"/>
+      <c r="V75" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W75" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X75" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="Y75" s="37"/>
       <c r="Z75" s="37"/>
       <c r="AA75" s="19"/>
@@ -6604,7 +7018,7 @@
       </c>
       <c r="F76" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G76" s="34" t="s">
         <v>39</v>
@@ -6651,9 +7065,15 @@
       <c r="U76" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V76" s="37"/>
-      <c r="W76" s="37"/>
-      <c r="X76" s="37"/>
+      <c r="V76" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W76" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X76" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y76" s="37"/>
       <c r="Z76" s="37"/>
       <c r="AA76" s="19"/>
@@ -6675,7 +7095,7 @@
       </c>
       <c r="F77" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G77" s="38" t="s">
         <v>40</v>
@@ -6722,9 +7142,15 @@
       <c r="U77" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V77" s="37"/>
-      <c r="W77" s="37"/>
-      <c r="X77" s="37"/>
+      <c r="V77" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W77" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X77" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y77" s="37"/>
       <c r="Z77" s="37"/>
       <c r="AA77" s="19"/>
@@ -6742,11 +7168,11 @@
       <c r="D78" s="32"/>
       <c r="E78" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F78" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G78" s="38" t="s">
         <v>40</v>
@@ -6793,9 +7219,15 @@
       <c r="U78" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V78" s="37"/>
-      <c r="W78" s="37"/>
-      <c r="X78" s="37"/>
+      <c r="V78" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W78" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="X78" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y78" s="37"/>
       <c r="Z78" s="37"/>
       <c r="AA78" s="19"/>
@@ -6813,11 +7245,11 @@
       <c r="D79" s="32"/>
       <c r="E79" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F79" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G79" s="38" t="s">
         <v>40</v>
@@ -6864,9 +7296,15 @@
       <c r="U79" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V79" s="37"/>
-      <c r="W79" s="37"/>
-      <c r="X79" s="37"/>
+      <c r="V79" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W79" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="X79" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="Y79" s="37"/>
       <c r="Z79" s="37"/>
       <c r="AA79" s="19"/>
@@ -6884,11 +7322,11 @@
       <c r="D80" s="32"/>
       <c r="E80" s="33">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F80" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G80" s="38" t="s">
         <v>40</v>
@@ -6935,9 +7373,15 @@
       <c r="U80" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V80" s="37"/>
-      <c r="W80" s="37"/>
-      <c r="X80" s="37"/>
+      <c r="V80" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W80" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="X80" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y80" s="37"/>
       <c r="Z80" s="37"/>
       <c r="AA80" s="19"/>
@@ -6959,7 +7403,7 @@
       </c>
       <c r="F81" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G81" s="38" t="s">
         <v>40</v>
@@ -7006,9 +7450,15 @@
       <c r="U81" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V81" s="37"/>
-      <c r="W81" s="37"/>
-      <c r="X81" s="37"/>
+      <c r="V81" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W81" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X81" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y81" s="37"/>
       <c r="Z81" s="37"/>
       <c r="AA81" s="19"/>
@@ -7026,11 +7476,11 @@
       <c r="D82" s="32"/>
       <c r="E82" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G82" s="34" t="s">
         <v>39</v>
@@ -7077,9 +7527,15 @@
       <c r="U82" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V82" s="37"/>
-      <c r="W82" s="37"/>
-      <c r="X82" s="37"/>
+      <c r="V82" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W82" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X82" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="Y82" s="37"/>
       <c r="Z82" s="37"/>
       <c r="AA82" s="19"/>
@@ -7101,7 +7557,7 @@
       </c>
       <c r="F83" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G83" s="34" t="s">
         <v>39</v>
@@ -7148,9 +7604,15 @@
       <c r="U83" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="V83" s="37"/>
-      <c r="W83" s="37"/>
-      <c r="X83" s="37"/>
+      <c r="V83" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W83" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X83" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Y83" s="37"/>
       <c r="Z83" s="37"/>
       <c r="AA83" s="19"/>
@@ -7168,7 +7630,7 @@
       <c r="D84" s="32"/>
       <c r="E84" s="33">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F84" s="33">
         <f t="shared" si="2"/>
@@ -7219,9 +7681,15 @@
       <c r="U84" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="V84" s="37"/>
-      <c r="W84" s="37"/>
-      <c r="X84" s="37"/>
+      <c r="V84" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="W84" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="X84" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="Y84" s="37"/>
       <c r="Z84" s="37"/>
       <c r="AA84" s="19"/>
@@ -13975,7 +14443,7 @@
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:P92 Q7:U84">
+  <conditionalFormatting sqref="G7:P92 Q7:X84">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>
